--- a/4_aviation/seat_load_factor/data/data.xlsx
+++ b/4_aviation/seat_load_factor/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelweinold/github/phd_publication_figures/4_aviation/seat_load_factor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0910F5-46CF-4C46-99AE-90B05E14D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8F0C84-51CE-BE48-80AA-98AEF0C791CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{A635F1BD-0485-4E42-82B4-460B2BAFDD8E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{A635F1BD-0485-4E42-82B4-460B2BAFDD8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>occupancy rate</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>https://de.statista.com/statistik/daten/studie/162886/umfrage/auslastung-der-zuege-der-deutschen-bahn-im-fernverkehr-seit-2006/</t>
+  </si>
+  <si>
+    <t>https://www.airlines.org/dataset/world-airlines-traffic-and-capacity/</t>
   </si>
 </sst>
 </file>
@@ -397,596 +406,815 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44BB6B7D-F57B-0B43-81AE-4C3F3CBC321F}">
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2021</v>
       </c>
       <c r="B2">
         <v>0.67675231215954978</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2020</v>
       </c>
       <c r="B3">
         <v>0.65240478830172277</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2019</v>
       </c>
       <c r="B4">
         <v>0.82383271541353553</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2018</v>
       </c>
       <c r="B5">
         <v>0.81603487619027348</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6">
         <v>0.81477539726590775</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2016</v>
       </c>
       <c r="B7">
         <v>0.8028551796938036</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2015</v>
       </c>
       <c r="B8">
         <v>0.8023865452308826</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2014</v>
       </c>
       <c r="B9">
         <v>0.7971850219492771</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2013</v>
       </c>
       <c r="B10">
         <v>0.794820537418229</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2012</v>
       </c>
       <c r="B11">
         <v>0.78862246469017683</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2011</v>
       </c>
       <c r="B12">
         <v>0.78006611894088174</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13">
         <v>0.78170186418214616</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2009</v>
       </c>
       <c r="B14">
         <v>0.76681701862939611</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2008</v>
       </c>
       <c r="B15">
         <v>0.7601384262509655</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2007</v>
       </c>
       <c r="B16">
         <v>0.76804727187723987</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2006</v>
       </c>
       <c r="B17">
         <v>0.75815069203717966</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2005</v>
       </c>
       <c r="B18">
         <v>0.74942757073775468</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2004</v>
       </c>
       <c r="B19">
         <v>0.73391155038331812</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2003</v>
       </c>
       <c r="B20">
         <v>0.71576784650692904</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2002</v>
       </c>
       <c r="B21">
         <v>0.71336211340656419</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2001</v>
       </c>
       <c r="B22">
         <v>0.69240776878032462</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2000</v>
       </c>
       <c r="B23">
         <v>0.71070158076878376</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1999</v>
       </c>
       <c r="B24">
         <v>0.69068202369764065</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1998</v>
       </c>
       <c r="B25">
         <v>0.68481092313805703</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1997</v>
       </c>
       <c r="B26">
         <v>0.69020359988197111</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1996</v>
       </c>
       <c r="B27">
         <v>0.6823370393296545</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1995</v>
       </c>
       <c r="B28">
         <v>0.66939032055311121</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1994</v>
       </c>
       <c r="B29">
         <v>0.66257791049372394</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1993</v>
       </c>
       <c r="B30">
         <v>0.64691507398094716</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1992</v>
       </c>
       <c r="B31">
         <v>0.65829358897134482</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1991</v>
       </c>
       <c r="B32">
         <v>0.66394027114287713</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1990</v>
       </c>
       <c r="B33">
         <v>0.67631221160478772</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1989</v>
       </c>
       <c r="B34">
         <v>0.68008884812614501</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1988</v>
       </c>
       <c r="B35">
         <v>0.6756610490734497</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1987</v>
       </c>
       <c r="B36">
         <v>0.67136030262737734</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1986</v>
       </c>
       <c r="B37">
         <v>0.64976753343804394</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1985</v>
       </c>
       <c r="B38">
         <v>0.65705678663038958</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1984</v>
       </c>
       <c r="B39">
         <v>0.64806499632915138</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1983</v>
       </c>
       <c r="B40">
         <v>0.64239226213873202</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1982</v>
       </c>
       <c r="B41">
         <v>0.63644473617638242</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1981</v>
       </c>
       <c r="B42">
         <v>0.63708576923142612</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1980</v>
       </c>
       <c r="B43">
         <v>0.63178032638727355</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1979</v>
       </c>
       <c r="B44">
         <v>0.65968387021306785</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1978</v>
       </c>
       <c r="B45">
         <v>0.64523313377214742</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1977</v>
       </c>
       <c r="B46">
         <v>0.60783206809977275</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1976</v>
       </c>
       <c r="B47">
         <v>0.60147501801443515</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1975</v>
       </c>
       <c r="B48">
         <v>0.59148089712269269</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1974</v>
       </c>
       <c r="B49">
         <v>0.59269258134302216</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1973</v>
       </c>
       <c r="B50">
         <v>0.57634213718267502</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1972</v>
       </c>
       <c r="B51">
         <v>0.57106180271338935</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1971</v>
       </c>
       <c r="B52">
         <v>0.5405898891769777</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1970</v>
       </c>
       <c r="B53">
         <v>0.54823735311275945</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1969</v>
       </c>
       <c r="B54">
         <v>0.51987116521697907</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1968</v>
       </c>
       <c r="B55">
         <v>0.53451376352816193</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1967</v>
       </c>
       <c r="B56">
         <v>0.56993736951983298</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1966</v>
       </c>
       <c r="B57">
         <v>0.5768261964735516</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1965</v>
       </c>
       <c r="B58">
         <v>0.55932203389830504</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1964</v>
       </c>
       <c r="B59">
         <v>0.55882352941176472</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1963</v>
       </c>
       <c r="B60">
         <v>0.53649635036496346</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1962</v>
       </c>
       <c r="B61">
         <v>0.53497942386831276</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1961</v>
       </c>
       <c r="B62">
         <v>0.55188679245283023</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1960</v>
       </c>
       <c r="B63">
         <v>0.59239130434782605</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1959</v>
       </c>
       <c r="B64">
         <v>0.60493827160493829</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1958</v>
       </c>
       <c r="B65">
         <v>0.5821917808219178</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1957</v>
       </c>
       <c r="B66">
         <v>0.61654135338345861</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1956</v>
       </c>
       <c r="B67">
         <v>0.6228070175438597</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1955</v>
       </c>
       <c r="B68">
         <v>0.61616161616161613</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1954</v>
       </c>
       <c r="B69">
         <v>0.60465116279069764</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1953</v>
       </c>
       <c r="B70">
         <v>0.62666666666666671</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1952</v>
       </c>
       <c r="B71">
         <v>0.625</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1951</v>
       </c>
       <c r="B72">
         <v>0.63636363636363635</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1950</v>
       </c>
       <c r="B73">
         <v>0.60869565217391308</v>
+      </c>
+      <c r="C73" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -996,156 +1224,210 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D93FC49A-A25B-0E4F-91F8-91648A13C5CC}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2006</v>
       </c>
       <c r="B2">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2007</v>
       </c>
       <c r="B3">
         <v>42.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2008</v>
       </c>
       <c r="B4">
         <v>44.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2009</v>
       </c>
       <c r="B5">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2010</v>
       </c>
       <c r="B6">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2011</v>
       </c>
       <c r="B7">
         <v>46.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
       <c r="B8">
         <v>50.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2013</v>
       </c>
       <c r="B9">
         <v>50.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2014</v>
       </c>
       <c r="B10">
         <v>49.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2015</v>
       </c>
       <c r="B11">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2016</v>
       </c>
       <c r="B12">
         <v>52.9</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2017</v>
       </c>
       <c r="B13">
         <v>55.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2018</v>
       </c>
       <c r="B14">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2019</v>
       </c>
       <c r="B15">
         <v>56.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2020</v>
       </c>
       <c r="B16">
         <v>30.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2021</v>
       </c>
       <c r="B17">
         <v>31.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2022</v>
       </c>
       <c r="B18">
         <v>45.9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
